--- a/2016년 재료비 6월/생명과학 재료비.xlsx
+++ b/2016년 재료비 6월/생명과학 재료비.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="121">
   <si>
     <t>*주야</t>
   </si>
@@ -627,99 +627,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1025,7 +1025,7 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
     <col min="6" max="6" width="14.5" style="29" customWidth="1"/>
-    <col min="7" max="7" width="22.5" style="32" customWidth="1"/>
+    <col min="7" max="7" width="22.5" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1070,7 +1070,7 @@
       <c r="F2" s="26">
         <v>17000</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
       <c r="F3" s="26">
         <v>17000</v>
       </c>
-      <c r="G3" s="31"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="25" t="s">
@@ -1114,7 +1114,7 @@
       <c r="F4" s="26">
         <v>17000</v>
       </c>
-      <c r="G4" s="31"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="25" t="s">
@@ -1135,7 +1135,7 @@
       <c r="F5" s="26">
         <v>17000</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="30" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       <c r="F6" s="26">
         <v>17000</v>
       </c>
-      <c r="G6" s="31"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="25" t="s">
@@ -1179,7 +1179,7 @@
       <c r="F7" s="26">
         <v>17000</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="30" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       <c r="F8" s="26">
         <v>17000</v>
       </c>
-      <c r="G8" s="31"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="25" t="s">
@@ -1223,7 +1223,7 @@
       <c r="F9" s="26">
         <v>17000</v>
       </c>
-      <c r="G9" s="31"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="25" t="s">
@@ -1244,7 +1244,7 @@
       <c r="F10" s="26">
         <v>17000</v>
       </c>
-      <c r="G10" s="31"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="25" t="s">
@@ -1265,7 +1265,7 @@
       <c r="F11" s="26">
         <v>17000</v>
       </c>
-      <c r="G11" s="31"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="25" t="s">
@@ -1286,7 +1286,7 @@
       <c r="F12" s="26">
         <v>17000</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="30" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       <c r="F13" s="26">
         <v>17000</v>
       </c>
-      <c r="G13" s="31"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="25" t="s">
@@ -1330,7 +1330,7 @@
       <c r="F14" s="26">
         <v>17000</v>
       </c>
-      <c r="G14" s="31"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="25" t="s">
@@ -1351,7 +1351,9 @@
       <c r="F15" s="26">
         <v>17000</v>
       </c>
-      <c r="G15" s="31"/>
+      <c r="G15" s="30" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="25" t="s">
@@ -1372,7 +1374,7 @@
       <c r="F16" s="26">
         <v>17000</v>
       </c>
-      <c r="G16" s="31"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="25" t="s">
@@ -1393,7 +1395,7 @@
       <c r="F17" s="26">
         <v>17000</v>
       </c>
-      <c r="G17" s="31"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="25" t="s">
@@ -1414,7 +1416,7 @@
       <c r="F18" s="26">
         <v>17000</v>
       </c>
-      <c r="G18" s="31"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="25" t="s">
@@ -1435,7 +1437,7 @@
       <c r="F19" s="26">
         <v>17000</v>
       </c>
-      <c r="G19" s="31"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="25" t="s">
@@ -1456,7 +1458,7 @@
       <c r="F20" s="26">
         <v>17000</v>
       </c>
-      <c r="G20" s="31"/>
+      <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="25" t="s">
@@ -1477,7 +1479,7 @@
       <c r="F21" s="26">
         <v>17000</v>
       </c>
-      <c r="G21" s="31"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="25" t="s">
@@ -1498,7 +1500,7 @@
       <c r="F22" s="26">
         <v>17000</v>
       </c>
-      <c r="G22" s="31"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="25" t="s">
@@ -1519,7 +1521,7 @@
       <c r="F23" s="26">
         <v>17000</v>
       </c>
-      <c r="G23" s="31"/>
+      <c r="G23" s="30"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="25" t="s">
@@ -1540,7 +1542,7 @@
       <c r="F24" s="26">
         <v>17000</v>
       </c>
-      <c r="G24" s="31"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="25" t="s">
@@ -1561,7 +1563,7 @@
       <c r="F25" s="26">
         <v>17000</v>
       </c>
-      <c r="G25" s="31"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="25" t="s">
@@ -1582,7 +1584,7 @@
       <c r="F26" s="26">
         <v>17000</v>
       </c>
-      <c r="G26" s="31"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="25" t="s">
@@ -1603,7 +1605,7 @@
       <c r="F27" s="26">
         <v>17000</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="30" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1626,7 +1628,7 @@
       <c r="F28" s="26">
         <v>17000</v>
       </c>
-      <c r="G28" s="31"/>
+      <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="25" t="s">
@@ -1647,7 +1649,7 @@
       <c r="F29" s="26">
         <v>17000</v>
       </c>
-      <c r="G29" s="31" t="s">
+      <c r="G29" s="30" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1670,7 +1672,7 @@
       <c r="F30" s="26">
         <v>17000</v>
       </c>
-      <c r="G30" s="31"/>
+      <c r="G30" s="30"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="25" t="s">
@@ -1691,7 +1693,7 @@
       <c r="F31" s="26">
         <v>17000</v>
       </c>
-      <c r="G31" s="31"/>
+      <c r="G31" s="30"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="25" t="s">
@@ -1712,7 +1714,7 @@
       <c r="F32" s="26">
         <v>17000</v>
       </c>
-      <c r="G32" s="31"/>
+      <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="25" t="s">
@@ -1733,7 +1735,7 @@
       <c r="F33" s="26">
         <v>17000</v>
       </c>
-      <c r="G33" s="31"/>
+      <c r="G33" s="30"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="25" t="s">
@@ -1754,7 +1756,7 @@
       <c r="F34" s="26">
         <v>17000</v>
       </c>
-      <c r="G34" s="31"/>
+      <c r="G34" s="30"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="25" t="s">
@@ -1775,7 +1777,7 @@
       <c r="F35" s="26">
         <v>17000</v>
       </c>
-      <c r="G35" s="31"/>
+      <c r="G35" s="30"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="25" t="s">
@@ -1796,7 +1798,7 @@
       <c r="F36" s="26">
         <v>17000</v>
       </c>
-      <c r="G36" s="31"/>
+      <c r="G36" s="30"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="25" t="s">
@@ -1817,7 +1819,7 @@
       <c r="F37" s="26">
         <v>17000</v>
       </c>
-      <c r="G37" s="31"/>
+      <c r="G37" s="30"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="25" t="s">
@@ -1838,7 +1840,7 @@
       <c r="F38" s="26">
         <v>17000</v>
       </c>
-      <c r="G38" s="31"/>
+      <c r="G38" s="30"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="25" t="s">
@@ -1859,7 +1861,7 @@
       <c r="F39" s="26">
         <v>17000</v>
       </c>
-      <c r="G39" s="31" t="s">
+      <c r="G39" s="30" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1882,7 +1884,7 @@
       <c r="F40" s="26">
         <v>17000</v>
       </c>
-      <c r="G40" s="31"/>
+      <c r="G40" s="30"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="25" t="s">
@@ -1903,7 +1905,7 @@
       <c r="F41" s="26">
         <v>17000</v>
       </c>
-      <c r="G41" s="31" t="s">
+      <c r="G41" s="30" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1926,7 +1928,7 @@
       <c r="F42" s="26">
         <v>17000</v>
       </c>
-      <c r="G42" s="31"/>
+      <c r="G42" s="30"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="25" t="s">
@@ -1947,7 +1949,7 @@
       <c r="F43" s="26">
         <v>17000</v>
       </c>
-      <c r="G43" s="31"/>
+      <c r="G43" s="30"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="25" t="s">
@@ -1968,7 +1970,7 @@
       <c r="F44" s="26">
         <v>17000</v>
       </c>
-      <c r="G44" s="31"/>
+      <c r="G44" s="30"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="25" t="s">
@@ -1989,7 +1991,7 @@
       <c r="F45" s="26">
         <v>17000</v>
       </c>
-      <c r="G45" s="31" t="s">
+      <c r="G45" s="30" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2012,7 +2014,7 @@
       <c r="F46" s="26">
         <v>17000</v>
       </c>
-      <c r="G46" s="31"/>
+      <c r="G46" s="30"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="25" t="s">
@@ -2033,7 +2035,7 @@
       <c r="F47" s="26">
         <v>17000</v>
       </c>
-      <c r="G47" s="31"/>
+      <c r="G47" s="30"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="25" t="s">
@@ -2054,7 +2056,7 @@
       <c r="F48" s="26">
         <v>17000</v>
       </c>
-      <c r="G48" s="31" t="s">
+      <c r="G48" s="30" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2077,7 +2079,7 @@
       <c r="F49" s="26">
         <v>17000</v>
       </c>
-      <c r="G49" s="31"/>
+      <c r="G49" s="30"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="25" t="s">
@@ -2098,7 +2100,7 @@
       <c r="F50" s="26">
         <v>17000</v>
       </c>
-      <c r="G50" s="31" t="s">
+      <c r="G50" s="30" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2121,7 +2123,7 @@
       <c r="F51" s="26">
         <v>17000</v>
       </c>
-      <c r="G51" s="31" t="s">
+      <c r="G51" s="30" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2144,7 +2146,7 @@
       <c r="F52" s="26">
         <v>17000</v>
       </c>
-      <c r="G52" s="31" t="s">
+      <c r="G52" s="30" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2167,7 +2169,7 @@
       <c r="F53" s="26">
         <v>17000</v>
       </c>
-      <c r="G53" s="31" t="s">
+      <c r="G53" s="30" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2190,7 +2192,7 @@
       <c r="F54" s="26">
         <v>17000</v>
       </c>
-      <c r="G54" s="31"/>
+      <c r="G54" s="30"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="25" t="s">
@@ -2211,7 +2213,7 @@
       <c r="F55" s="26">
         <v>17000</v>
       </c>
-      <c r="G55" s="31"/>
+      <c r="G55" s="30"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="25" t="s">
@@ -2232,7 +2234,7 @@
       <c r="F56" s="26">
         <v>17000</v>
       </c>
-      <c r="G56" s="31"/>
+      <c r="G56" s="30"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="25" t="s">
@@ -2253,7 +2255,7 @@
       <c r="F57" s="26">
         <v>17000</v>
       </c>
-      <c r="G57" s="31"/>
+      <c r="G57" s="30"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="25" t="s">
@@ -2274,7 +2276,7 @@
       <c r="F58" s="26">
         <v>17000</v>
       </c>
-      <c r="G58" s="31"/>
+      <c r="G58" s="30"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="25" t="s">
@@ -2295,7 +2297,7 @@
       <c r="F59" s="26">
         <v>17000</v>
       </c>
-      <c r="G59" s="31"/>
+      <c r="G59" s="30"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="25" t="s">
@@ -2316,7 +2318,7 @@
       <c r="F60" s="26">
         <v>17000</v>
       </c>
-      <c r="G60" s="31"/>
+      <c r="G60" s="30"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="25" t="s">
@@ -2337,7 +2339,7 @@
       <c r="F61" s="26">
         <v>17000</v>
       </c>
-      <c r="G61" s="31"/>
+      <c r="G61" s="30"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="25" t="s">
@@ -2358,7 +2360,7 @@
       <c r="F62" s="26">
         <v>17000</v>
       </c>
-      <c r="G62" s="31"/>
+      <c r="G62" s="30"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="25" t="s">
@@ -2379,7 +2381,7 @@
       <c r="F63" s="26">
         <v>17000</v>
       </c>
-      <c r="G63" s="31" t="s">
+      <c r="G63" s="30" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2402,7 +2404,7 @@
       <c r="F64" s="26">
         <v>17000</v>
       </c>
-      <c r="G64" s="31" t="s">
+      <c r="G64" s="30" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2425,7 +2427,7 @@
       <c r="F65" s="26">
         <v>17000</v>
       </c>
-      <c r="G65" s="31"/>
+      <c r="G65" s="30"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="25" t="s">
@@ -2446,7 +2448,7 @@
       <c r="F66" s="26">
         <v>17000</v>
       </c>
-      <c r="G66" s="31"/>
+      <c r="G66" s="30"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="25" t="s">
@@ -2467,7 +2469,7 @@
       <c r="F67" s="26">
         <v>17000</v>
       </c>
-      <c r="G67" s="31"/>
+      <c r="G67" s="30"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="25" t="s">
@@ -2488,7 +2490,7 @@
       <c r="F68" s="26">
         <v>17000</v>
       </c>
-      <c r="G68" s="31"/>
+      <c r="G68" s="30"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="25" t="s">
@@ -2509,7 +2511,7 @@
       <c r="F69" s="26">
         <v>17000</v>
       </c>
-      <c r="G69" s="31"/>
+      <c r="G69" s="30"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="25" t="s">
@@ -2530,7 +2532,7 @@
       <c r="F70" s="26">
         <v>17000</v>
       </c>
-      <c r="G70" s="31"/>
+      <c r="G70" s="30"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="25" t="s">
@@ -2551,7 +2553,7 @@
       <c r="F71" s="26">
         <v>17000</v>
       </c>
-      <c r="G71" s="31"/>
+      <c r="G71" s="30"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="25" t="s">
@@ -2572,7 +2574,7 @@
       <c r="F72" s="26">
         <v>17000</v>
       </c>
-      <c r="G72" s="31"/>
+      <c r="G72" s="30"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="25" t="s">
@@ -2593,7 +2595,7 @@
       <c r="F73" s="26">
         <v>17000</v>
       </c>
-      <c r="G73" s="31"/>
+      <c r="G73" s="30"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="25" t="s">
@@ -2614,7 +2616,7 @@
       <c r="F74" s="26">
         <v>17000</v>
       </c>
-      <c r="G74" s="31"/>
+      <c r="G74" s="30"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="25" t="s">
@@ -2635,7 +2637,7 @@
       <c r="F75" s="26">
         <v>17000</v>
       </c>
-      <c r="G75" s="31"/>
+      <c r="G75" s="30"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="25" t="s">
@@ -2656,7 +2658,7 @@
       <c r="F76" s="26">
         <v>17000</v>
       </c>
-      <c r="G76" s="31"/>
+      <c r="G76" s="30"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="25" t="s">
@@ -2677,7 +2679,7 @@
       <c r="F77" s="26">
         <v>17000</v>
       </c>
-      <c r="G77" s="31"/>
+      <c r="G77" s="30"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="25" t="s">
@@ -2698,7 +2700,7 @@
       <c r="F78" s="26">
         <v>17000</v>
       </c>
-      <c r="G78" s="31"/>
+      <c r="G78" s="30"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="25" t="s">
@@ -2719,7 +2721,7 @@
       <c r="F79" s="26">
         <v>17000</v>
       </c>
-      <c r="G79" s="31"/>
+      <c r="G79" s="30"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="25" t="s">
@@ -2740,7 +2742,7 @@
       <c r="F80" s="26">
         <v>17000</v>
       </c>
-      <c r="G80" s="31"/>
+      <c r="G80" s="30"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="25" t="s">
@@ -2761,7 +2763,7 @@
       <c r="F81" s="26">
         <v>17000</v>
       </c>
-      <c r="G81" s="31"/>
+      <c r="G81" s="30"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="25" t="s">
@@ -2782,7 +2784,7 @@
       <c r="F82" s="26">
         <v>17000</v>
       </c>
-      <c r="G82" s="31"/>
+      <c r="G82" s="30"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="25" t="s">
@@ -2803,7 +2805,7 @@
       <c r="F83" s="26">
         <v>17000</v>
       </c>
-      <c r="G83" s="31"/>
+      <c r="G83" s="30"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="25" t="s">
@@ -2824,7 +2826,7 @@
       <c r="F84" s="26">
         <v>17000</v>
       </c>
-      <c r="G84" s="31"/>
+      <c r="G84" s="30"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="25" t="s">
@@ -2845,7 +2847,7 @@
       <c r="F85" s="26">
         <v>17000</v>
       </c>
-      <c r="G85" s="31" t="s">
+      <c r="G85" s="30" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2868,7 +2870,7 @@
       <c r="F86" s="26">
         <v>17000</v>
       </c>
-      <c r="G86" s="31"/>
+      <c r="G86" s="30"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="25" t="s">
@@ -2889,7 +2891,7 @@
       <c r="F87" s="26">
         <v>17000</v>
       </c>
-      <c r="G87" s="31"/>
+      <c r="G87" s="30"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="25" t="s">
@@ -2910,7 +2912,7 @@
       <c r="F88" s="26">
         <v>17000</v>
       </c>
-      <c r="G88" s="31" t="s">
+      <c r="G88" s="30" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2933,7 +2935,7 @@
       <c r="F89" s="26">
         <v>17000</v>
       </c>
-      <c r="G89" s="31"/>
+      <c r="G89" s="30"/>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="25" t="s">
@@ -2954,7 +2956,7 @@
       <c r="F90" s="26">
         <v>17000</v>
       </c>
-      <c r="G90" s="31"/>
+      <c r="G90" s="30"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="25" t="s">
@@ -2975,7 +2977,7 @@
       <c r="F91" s="26">
         <v>17000</v>
       </c>
-      <c r="G91" s="31" t="s">
+      <c r="G91" s="30" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2998,7 +3000,7 @@
       <c r="F92" s="26">
         <v>17000</v>
       </c>
-      <c r="G92" s="31"/>
+      <c r="G92" s="30"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="25" t="s">
@@ -3019,7 +3021,7 @@
       <c r="F93" s="26">
         <v>17000</v>
       </c>
-      <c r="G93" s="31"/>
+      <c r="G93" s="30"/>
     </row>
     <row r="94" spans="1:7">
       <c r="F94">
@@ -3051,21 +3053,21 @@
     <col min="5" max="5" width="9.5" style="3" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="3" customWidth="1"/>
     <col min="7" max="8" width="10.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="9" max="10" width="9" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="14" t="s">

--- a/2016년 재료비 6월/생명과학 재료비.xlsx
+++ b/2016년 재료비 6월/생명과학 재료비.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="555" windowWidth="20175" windowHeight="13500"/>
+    <workbookView xWindow="240" yWindow="555" windowWidth="19440" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="생명과학 재료비" sheetId="1" r:id="rId1"/>
     <sheet name="정리" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="122">
   <si>
     <t>*주야</t>
   </si>
@@ -378,6 +378,10 @@
   </si>
   <si>
     <t>손예은</t>
+  </si>
+  <si>
+    <t>자유수강대상자</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -627,98 +631,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1019,13 +1023,17 @@
   <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="6" max="6" width="14.5" style="29" customWidth="1"/>
-    <col min="7" max="7" width="22.5" style="31" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="28" customWidth="1"/>
+    <col min="7" max="7" width="17.875" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1067,10 +1075,10 @@
       <c r="E2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G2" s="30" t="s">
+      <c r="F2" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1090,10 +1098,10 @@
       <c r="E3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G3" s="30"/>
+      <c r="F3" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="25" t="s">
@@ -1111,10 +1119,10 @@
       <c r="E4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G4" s="30"/>
+      <c r="F4" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="25" t="s">
@@ -1129,13 +1137,13 @@
       <c r="D5" s="25">
         <v>8</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G5" s="30" t="s">
+      <c r="F5" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G5" s="29" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1155,10 +1163,10 @@
       <c r="E6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G6" s="30"/>
+      <c r="F6" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="25" t="s">
@@ -1176,10 +1184,10 @@
       <c r="E7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G7" s="30" t="s">
+      <c r="F7" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G7" s="29" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1196,13 +1204,13 @@
       <c r="D8" s="25">
         <v>23</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G8" s="30"/>
+      <c r="F8" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="25" t="s">
@@ -1220,10 +1228,10 @@
       <c r="E9" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G9" s="30"/>
+      <c r="F9" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="25" t="s">
@@ -1241,10 +1249,10 @@
       <c r="E10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G10" s="30"/>
+      <c r="F10" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="25" t="s">
@@ -1262,10 +1270,10 @@
       <c r="E11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G11" s="30"/>
+      <c r="F11" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="25" t="s">
@@ -1283,10 +1291,10 @@
       <c r="E12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G12" s="30" t="s">
+      <c r="F12" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G12" s="29" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1306,10 +1314,10 @@
       <c r="E13" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G13" s="30"/>
+      <c r="F13" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="25" t="s">
@@ -1327,10 +1335,10 @@
       <c r="E14" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G14" s="30"/>
+      <c r="F14" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="25" t="s">
@@ -1345,14 +1353,14 @@
       <c r="D15" s="25">
         <v>22</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>11</v>
+      <c r="F15" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1365,16 +1373,16 @@
       <c r="C16" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="27">
         <v>5</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G16" s="30"/>
+      <c r="F16" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="25" t="s">
@@ -1386,16 +1394,16 @@
       <c r="C17" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="27">
         <v>6</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G17" s="30"/>
+      <c r="F17" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="25" t="s">
@@ -1413,10 +1421,10 @@
       <c r="E18" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G18" s="30"/>
+      <c r="F18" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="25" t="s">
@@ -1434,10 +1442,10 @@
       <c r="E19" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G19" s="30"/>
+      <c r="F19" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G19" s="29"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="25" t="s">
@@ -1455,10 +1463,10 @@
       <c r="E20" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G20" s="30"/>
+      <c r="F20" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="25" t="s">
@@ -1476,10 +1484,10 @@
       <c r="E21" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G21" s="30"/>
+      <c r="F21" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="25" t="s">
@@ -1497,10 +1505,10 @@
       <c r="E22" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G22" s="30"/>
+      <c r="F22" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G22" s="29"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="25" t="s">
@@ -1518,10 +1526,10 @@
       <c r="E23" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G23" s="30"/>
+      <c r="F23" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G23" s="29"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="25" t="s">
@@ -1539,10 +1547,10 @@
       <c r="E24" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G24" s="30"/>
+      <c r="F24" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G24" s="29"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="25" t="s">
@@ -1560,10 +1568,10 @@
       <c r="E25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G25" s="30"/>
+      <c r="F25" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G25" s="29"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="25" t="s">
@@ -1581,31 +1589,31 @@
       <c r="E26" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G26" s="30"/>
+      <c r="F26" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G26" s="29"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="26" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="25">
         <v>15</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G27" s="30" t="s">
+      <c r="F27" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G27" s="29" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1625,19 +1633,19 @@
       <c r="E28" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G28" s="30"/>
+      <c r="F28" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G28" s="29"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="26" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="25">
@@ -1646,10 +1654,10 @@
       <c r="E29" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G29" s="30" t="s">
+      <c r="F29" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G29" s="29" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1669,19 +1677,19 @@
       <c r="E30" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G30" s="30"/>
+      <c r="F30" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G30" s="29"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="26" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="25">
@@ -1690,10 +1698,10 @@
       <c r="E31" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G31" s="30"/>
+      <c r="F31" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G31" s="29"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="25" t="s">
@@ -1702,7 +1710,7 @@
       <c r="B32" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="26" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="25">
@@ -1711,16 +1719,16 @@
       <c r="E32" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G32" s="30"/>
+      <c r="F32" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G32" s="29"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="26" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="25" t="s">
@@ -1732,10 +1740,10 @@
       <c r="E33" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G33" s="30"/>
+      <c r="F33" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G33" s="29"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="25" t="s">
@@ -1744,7 +1752,7 @@
       <c r="B34" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="26" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="25">
@@ -1753,16 +1761,16 @@
       <c r="E34" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="F34" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G34" s="30"/>
+      <c r="F34" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G34" s="29"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="26" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="25" t="s">
@@ -1774,10 +1782,10 @@
       <c r="E35" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G35" s="30"/>
+      <c r="F35" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G35" s="29"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="25" t="s">
@@ -1786,7 +1794,7 @@
       <c r="B36" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="26" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="25">
@@ -1795,16 +1803,16 @@
       <c r="E36" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G36" s="30"/>
+      <c r="F36" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G36" s="29"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="26" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="25" t="s">
@@ -1816,10 +1824,10 @@
       <c r="E37" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F37" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G37" s="30"/>
+      <c r="F37" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G37" s="29"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="25" t="s">
@@ -1828,7 +1836,7 @@
       <c r="B38" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="26" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="25">
@@ -1837,31 +1845,31 @@
       <c r="E38" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F38" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G38" s="30"/>
+      <c r="F38" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G38" s="29"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="26" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="25">
         <v>23</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G39" s="30" t="s">
+      <c r="F39" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G39" s="29" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1881,19 +1889,19 @@
       <c r="E40" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F40" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G40" s="30"/>
+      <c r="F40" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G40" s="29"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="26" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="25">
@@ -1902,10 +1910,10 @@
       <c r="E41" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G41" s="30" t="s">
+      <c r="F41" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G41" s="29" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1916,28 +1924,28 @@
       <c r="B42" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="25">
         <v>11</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F42" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G42" s="30"/>
+      <c r="F42" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G42" s="29"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="26" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="25">
@@ -1946,10 +1954,10 @@
       <c r="E43" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G43" s="30"/>
+      <c r="F43" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G43" s="29"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="25" t="s">
@@ -1967,19 +1975,19 @@
       <c r="E44" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F44" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G44" s="30"/>
+      <c r="F44" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G44" s="29"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="26" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="25">
@@ -1988,10 +1996,10 @@
       <c r="E45" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F45" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G45" s="30" t="s">
+      <c r="F45" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G45" s="29" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2011,19 +2019,19 @@
       <c r="E46" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F46" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G46" s="30"/>
+      <c r="F46" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G46" s="29"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="26" t="s">
         <v>27</v>
       </c>
       <c r="D47" s="25">
@@ -2032,10 +2040,10 @@
       <c r="E47" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F47" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G47" s="30"/>
+      <c r="F47" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G47" s="29"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="25" t="s">
@@ -2053,10 +2061,10 @@
       <c r="E48" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="F48" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G48" s="30" t="s">
+      <c r="F48" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G48" s="29" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2064,10 +2072,10 @@
       <c r="A49" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="26" t="s">
         <v>27</v>
       </c>
       <c r="D49" s="25">
@@ -2076,10 +2084,10 @@
       <c r="E49" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="F49" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G49" s="30"/>
+      <c r="F49" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G49" s="29"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="25" t="s">
@@ -2097,10 +2105,10 @@
       <c r="E50" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="F50" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G50" s="30" t="s">
+      <c r="F50" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G50" s="29" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2108,7 +2116,7 @@
       <c r="A51" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="26" t="s">
         <v>40</v>
       </c>
       <c r="C51" s="25" t="s">
@@ -2120,10 +2128,10 @@
       <c r="E51" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F51" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G51" s="30" t="s">
+      <c r="F51" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G51" s="29" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2143,10 +2151,10 @@
       <c r="E52" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="F52" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G52" s="30" t="s">
+      <c r="F52" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G52" s="29" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2166,10 +2174,10 @@
       <c r="E53" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F53" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G53" s="30" t="s">
+      <c r="F53" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G53" s="29" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2189,10 +2197,10 @@
       <c r="E54" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F54" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G54" s="30"/>
+      <c r="F54" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G54" s="29"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="25" t="s">
@@ -2210,10 +2218,10 @@
       <c r="E55" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="F55" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G55" s="30"/>
+      <c r="F55" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G55" s="29"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="25" t="s">
@@ -2231,10 +2239,10 @@
       <c r="E56" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="F56" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G56" s="30"/>
+      <c r="F56" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G56" s="29"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="25" t="s">
@@ -2252,10 +2260,10 @@
       <c r="E57" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="F57" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G57" s="30"/>
+      <c r="F57" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G57" s="29"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="25" t="s">
@@ -2273,10 +2281,10 @@
       <c r="E58" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="F58" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G58" s="30"/>
+      <c r="F58" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G58" s="29"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="25" t="s">
@@ -2294,10 +2302,10 @@
       <c r="E59" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="F59" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G59" s="30"/>
+      <c r="F59" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G59" s="29"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="25" t="s">
@@ -2312,13 +2320,13 @@
       <c r="D60" s="25">
         <v>3</v>
       </c>
-      <c r="E60" s="27" t="s">
+      <c r="E60" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F60" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G60" s="30"/>
+      <c r="F60" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G60" s="29"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="25" t="s">
@@ -2336,10 +2344,10 @@
       <c r="E61" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="F61" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G61" s="30"/>
+      <c r="F61" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G61" s="29"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="25" t="s">
@@ -2357,10 +2365,10 @@
       <c r="E62" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="F62" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G62" s="30"/>
+      <c r="F62" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G62" s="29"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="25" t="s">
@@ -2375,13 +2383,13 @@
       <c r="D63" s="25">
         <v>4</v>
       </c>
-      <c r="E63" s="27" t="s">
+      <c r="E63" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F63" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G63" s="30" t="s">
+      <c r="F63" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G63" s="29" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2401,10 +2409,10 @@
       <c r="E64" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="F64" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G64" s="30" t="s">
+      <c r="F64" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G64" s="29" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2424,10 +2432,10 @@
       <c r="E65" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="F65" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G65" s="30"/>
+      <c r="F65" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G65" s="29"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="25" t="s">
@@ -2445,10 +2453,10 @@
       <c r="E66" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="F66" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G66" s="30"/>
+      <c r="F66" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G66" s="29"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="25" t="s">
@@ -2466,10 +2474,10 @@
       <c r="E67" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F67" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G67" s="30"/>
+      <c r="F67" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G67" s="29"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="25" t="s">
@@ -2487,10 +2495,10 @@
       <c r="E68" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="F68" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G68" s="30"/>
+      <c r="F68" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G68" s="29"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="25" t="s">
@@ -2508,10 +2516,10 @@
       <c r="E69" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="F69" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G69" s="30"/>
+      <c r="F69" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G69" s="29"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="25" t="s">
@@ -2529,10 +2537,10 @@
       <c r="E70" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="F70" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G70" s="30"/>
+      <c r="F70" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G70" s="29"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="25" t="s">
@@ -2547,13 +2555,13 @@
       <c r="D71" s="25">
         <v>19</v>
       </c>
-      <c r="E71" s="27" t="s">
+      <c r="E71" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="F71" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G71" s="30"/>
+      <c r="F71" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G71" s="29"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="25" t="s">
@@ -2571,10 +2579,10 @@
       <c r="E72" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F72" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G72" s="30"/>
+      <c r="F72" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G72" s="29"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="25" t="s">
@@ -2592,10 +2600,10 @@
       <c r="E73" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F73" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G73" s="30"/>
+      <c r="F73" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G73" s="29"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="25" t="s">
@@ -2613,10 +2621,10 @@
       <c r="E74" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F74" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G74" s="30"/>
+      <c r="F74" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G74" s="29"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="25" t="s">
@@ -2634,10 +2642,10 @@
       <c r="E75" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="F75" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G75" s="30"/>
+      <c r="F75" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G75" s="29"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="25" t="s">
@@ -2655,10 +2663,10 @@
       <c r="E76" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="F76" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G76" s="30"/>
+      <c r="F76" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G76" s="29"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="25" t="s">
@@ -2673,13 +2681,13 @@
       <c r="D77" s="25">
         <v>13</v>
       </c>
-      <c r="E77" s="27" t="s">
+      <c r="E77" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="F77" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G77" s="30"/>
+      <c r="F77" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G77" s="29"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="25" t="s">
@@ -2697,10 +2705,10 @@
       <c r="E78" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="F78" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G78" s="30"/>
+      <c r="F78" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G78" s="29"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="25" t="s">
@@ -2718,10 +2726,10 @@
       <c r="E79" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F79" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G79" s="30"/>
+      <c r="F79" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G79" s="29"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="25" t="s">
@@ -2739,10 +2747,10 @@
       <c r="E80" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="F80" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G80" s="30"/>
+      <c r="F80" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G80" s="29"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="25" t="s">
@@ -2760,10 +2768,10 @@
       <c r="E81" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="F81" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G81" s="30"/>
+      <c r="F81" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G81" s="29"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="25" t="s">
@@ -2781,10 +2789,10 @@
       <c r="E82" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="F82" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G82" s="30"/>
+      <c r="F82" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G82" s="29"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="25" t="s">
@@ -2802,10 +2810,10 @@
       <c r="E83" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="F83" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G83" s="30"/>
+      <c r="F83" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G83" s="29"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="25" t="s">
@@ -2823,10 +2831,10 @@
       <c r="E84" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="F84" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G84" s="30"/>
+      <c r="F84" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G84" s="29"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="25" t="s">
@@ -2841,13 +2849,13 @@
       <c r="D85" s="25">
         <v>23</v>
       </c>
-      <c r="E85" s="27" t="s">
+      <c r="E85" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F85" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G85" s="30" t="s">
+      <c r="F85" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G85" s="29" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2867,10 +2875,10 @@
       <c r="E86" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="F86" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G86" s="30"/>
+      <c r="F86" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G86" s="29"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="25" t="s">
@@ -2888,10 +2896,10 @@
       <c r="E87" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="F87" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G87" s="30"/>
+      <c r="F87" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G87" s="29"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="25" t="s">
@@ -2909,10 +2917,10 @@
       <c r="E88" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="F88" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G88" s="30" t="s">
+      <c r="F88" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G88" s="29" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2932,10 +2940,10 @@
       <c r="E89" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="F89" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G89" s="30"/>
+      <c r="F89" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G89" s="29"/>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="25" t="s">
@@ -2953,10 +2961,10 @@
       <c r="E90" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="F90" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G90" s="30"/>
+      <c r="F90" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G90" s="29"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="25" t="s">
@@ -2974,10 +2982,10 @@
       <c r="E91" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="F91" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G91" s="30" t="s">
+      <c r="F91" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G91" s="29" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2997,10 +3005,10 @@
       <c r="E92" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F92" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G92" s="30"/>
+      <c r="F92" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G92" s="29"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="25" t="s">
@@ -3018,16 +3026,13 @@
       <c r="E93" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="F93" s="26">
-        <v>17000</v>
-      </c>
-      <c r="G93" s="30"/>
+      <c r="F93" s="31">
+        <v>17000</v>
+      </c>
+      <c r="G93" s="29"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="F94">
-        <f>SUM(F2:F93)</f>
-        <v>1564000</v>
-      </c>
+      <c r="F94"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -3053,8 +3058,8 @@
     <col min="5" max="5" width="9.5" style="3" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="3" customWidth="1"/>
     <col min="7" max="8" width="10.625" style="3" customWidth="1"/>
-    <col min="9" max="10" width="9" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="9" max="9" width="9" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
